--- a/sql part/sql notes b3.xlsx
+++ b/sql part/sql notes b3.xlsx
@@ -4,18 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="120" windowWidth="13380" windowHeight="6912"/>
+    <workbookView xWindow="384" yWindow="120" windowWidth="13380" windowHeight="6912" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="INSERT INTO" sheetId="1" r:id="rId1"/>
     <sheet name="SELECT" sheetId="4" r:id="rId2"/>
+    <sheet name="SELECT(2)" sheetId="9" r:id="rId3"/>
+    <sheet name="UPDATE" sheetId="5" r:id="rId4"/>
+    <sheet name="DELETE" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="93">
   <si>
     <t>INSERT INTO</t>
   </si>
@@ -69,6 +73,231 @@
   </si>
   <si>
     <t>*** The ALL CAPS Text are always part of the SQL Query</t>
+  </si>
+  <si>
+    <t>WHERE</t>
+  </si>
+  <si>
+    <t>fld_ref op ref_val</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORDER BY </t>
+  </si>
+  <si>
+    <t>fld_ref ASC / DESC</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>BETWEEN</t>
+  </si>
+  <si>
+    <t>LIKE</t>
+  </si>
+  <si>
+    <t>op:</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>&lt;&gt;</t>
+  </si>
+  <si>
+    <t>single field multiple values</t>
+  </si>
+  <si>
+    <t>range of items</t>
+  </si>
+  <si>
+    <t>fld_reference</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>min_value</t>
+  </si>
+  <si>
+    <t>max_value</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>wild card symbol</t>
+  </si>
+  <si>
+    <t>uses wild card</t>
+  </si>
+  <si>
+    <t>a%</t>
+  </si>
+  <si>
+    <t>anything starting with a</t>
+  </si>
+  <si>
+    <t>%a</t>
+  </si>
+  <si>
+    <t>anything that ends with a</t>
+  </si>
+  <si>
+    <t>%a%</t>
+  </si>
+  <si>
+    <t>anything with a in it</t>
+  </si>
+  <si>
+    <t>logical operator</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>conditionA operator conditionB</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>similar to multiplication</t>
+  </si>
+  <si>
+    <t>similar to addition</t>
+  </si>
+  <si>
+    <t>sample use:</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>advance search</t>
+  </si>
+  <si>
+    <t>NOT</t>
+  </si>
+  <si>
+    <t>reverse result</t>
+  </si>
+  <si>
+    <t>UPDATE</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>fld_ref op value_reference</t>
+  </si>
+  <si>
+    <t>fld1 = 'new value 1'</t>
+  </si>
+  <si>
+    <t>fld2 = 'new value 2'</t>
+  </si>
+  <si>
+    <t>DELETE FROM</t>
+  </si>
+  <si>
+    <t>COUNT</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>Canned Goods</t>
+  </si>
+  <si>
+    <t>Detergent</t>
+  </si>
+  <si>
+    <t>Drinks</t>
+  </si>
+  <si>
+    <t>Hygiene</t>
+  </si>
+  <si>
+    <t>Snacks</t>
+  </si>
+  <si>
+    <t>Spreads</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>('</t>
+  </si>
+  <si>
+    <t>','</t>
+  </si>
+  <si>
+    <t>,('</t>
+  </si>
+  <si>
+    <t>')</t>
+  </si>
+  <si>
+    <t>table1</t>
+  </si>
+  <si>
+    <t>JOIN</t>
+  </si>
+  <si>
+    <t>table2</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>table1.fld_ref = table2.fld_ref</t>
   </si>
 </sst>
 </file>
@@ -119,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -131,6 +360,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,7 +665,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
   <cols>
@@ -541,9 +772,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="B9:C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
   <cols>
@@ -609,13 +842,692 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="5"/>
+      <c r="B9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="5"/>
+      <c r="B11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="5"/>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="5"/>
+      <c r="B13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="5"/>
+      <c r="B15" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C16" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B22" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C23" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B26" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B27" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B28" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B29" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B30" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B34" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C36" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B43" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C44" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C45" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C46" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C47" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C48" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B53" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B54" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B55" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A58" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A61" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A62" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B64" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="D66" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="E68" s="1">
+        <v>0</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="E69" s="1">
+        <v>1</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1">
+        <v>1</v>
+      </c>
+      <c r="G70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C71" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="73" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="D73" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="E74" s="1">
+        <v>0</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="E75" s="1">
+        <v>0</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1</v>
+      </c>
+      <c r="G75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="E76" s="1">
+        <v>1</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0</v>
+      </c>
+      <c r="G76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="E77" s="1">
+        <v>1</v>
+      </c>
+      <c r="F77" s="1">
+        <v>1</v>
+      </c>
+      <c r="G77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="3:7" x14ac:dyDescent="0.45">
+      <c r="C78" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B17" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B19" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B21" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B23" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>62</v>
+      </c>
       <c r="C10" s="6"/>
       <c r="D10" s="5"/>
     </row>
@@ -653,4 +1565,279 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="5"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" t="str">
+        <f>CONCATENATE(A3,B3,C3,D3,E3,F3,G3)</f>
+        <v>('Canned Goods','C','Peter')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" ref="H4:H8" si="0">CONCATENATE(A4,B4,C4,D4,E4,F4,G4)</f>
+        <v>,('Detergent','E','Kevin')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>,('Drinks','A','Peter')</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>,('Hygiene','D','Kevin')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>,('Snacks','A','Peter')</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>,('Spreads','B','Peter')</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/sql part/sql notes b3.xlsx
+++ b/sql part/sql notes b3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="120" windowWidth="13380" windowHeight="6912" activeTab="2"/>
+    <workbookView xWindow="384" yWindow="120" windowWidth="13380" windowHeight="6912" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSERT INTO" sheetId="1" r:id="rId1"/>
@@ -336,7 +336,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -344,11 +344,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -362,6 +377,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -774,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="B9:C14"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="G77" sqref="E73:G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
@@ -1138,57 +1154,57 @@
       <c r="D66" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="F66" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="G66" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="67" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="E67" s="1">
+      <c r="E67" s="11">
         <v>0</v>
       </c>
-      <c r="F67" s="1">
+      <c r="F67" s="11">
         <v>0</v>
       </c>
-      <c r="G67" s="1">
+      <c r="G67" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="E68" s="1">
+      <c r="E68" s="11">
         <v>0</v>
       </c>
-      <c r="F68" s="1">
+      <c r="F68" s="11">
         <v>1</v>
       </c>
-      <c r="G68" s="1">
+      <c r="G68" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="E69" s="1">
+      <c r="E69" s="11">
         <v>1</v>
       </c>
-      <c r="F69" s="1">
+      <c r="F69" s="11">
         <v>0</v>
       </c>
-      <c r="G69" s="1">
+      <c r="G69" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="E70" s="1">
+      <c r="E70" s="11">
         <v>1</v>
       </c>
-      <c r="F70" s="1">
+      <c r="F70" s="11">
         <v>1</v>
       </c>
-      <c r="G70" s="1">
+      <c r="G70" s="11">
         <v>1</v>
       </c>
     </row>
@@ -1204,57 +1220,57 @@
       <c r="D73" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="F73" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="G73" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="74" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="E74" s="1">
+      <c r="E74" s="11">
         <v>0</v>
       </c>
-      <c r="F74" s="1">
+      <c r="F74" s="11">
         <v>0</v>
       </c>
-      <c r="G74" s="1">
+      <c r="G74" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="E75" s="1">
+      <c r="E75" s="11">
         <v>0</v>
       </c>
-      <c r="F75" s="1">
+      <c r="F75" s="11">
         <v>1</v>
       </c>
-      <c r="G75" s="1">
+      <c r="G75" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="E76" s="1">
+      <c r="E76" s="11">
         <v>1</v>
       </c>
-      <c r="F76" s="1">
+      <c r="F76" s="11">
         <v>0</v>
       </c>
-      <c r="G76" s="1">
+      <c r="G76" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="3:7" x14ac:dyDescent="0.45">
-      <c r="E77" s="1">
+      <c r="E77" s="11">
         <v>1</v>
       </c>
-      <c r="F77" s="1">
+      <c r="F77" s="11">
         <v>1</v>
       </c>
-      <c r="G77" s="1">
+      <c r="G77" s="11">
         <v>1</v>
       </c>
     </row>
@@ -1276,8 +1292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:B23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
